--- a/game01_dino/new_test/_todo_list.xlsx
+++ b/game01_dino/new_test/_todo_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repository\game_explorer\game01_dino\new_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC4DCEB-73DA-42EE-9833-FD1663F77295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50D157A-0440-46BC-B70C-6766E86DE196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>代办</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型删除优化-繁衍下一代的时候,训练完成的模型,每一代只保留最优秀的,并添加状态,表明模型已删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +455,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,9 +535,13 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">

--- a/game01_dino/new_test/_todo_list.xlsx
+++ b/game01_dino/new_test/_todo_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repository\game_explorer\game01_dino\new_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50D157A-0440-46BC-B70C-6766E86DE196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70F6FA9-71D3-42DB-B0BC-90741B9268A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>代办</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>模型删除优化-繁衍下一代的时候,训练完成的模型,每一代只保留最优秀的,并添加状态,表明模型已删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出优化-按住esc之后,游戏结束后自动退出,而不是强制退出(此时鼠标被游戏agent控制,退出不好控制)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +459,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -545,9 +549,13 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
